--- a/data/hotels_by_city/Miami/Miami_shard_467.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_467.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,782 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r625481742-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>34438</t>
+  </si>
+  <si>
+    <t>12285436</t>
+  </si>
+  <si>
+    <t>625481742</t>
+  </si>
+  <si>
+    <t>10/16/2018</t>
+  </si>
+  <si>
+    <t>Great Loaction</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel with our family of 4 kids. The hotel is very nice and clean. The staff is very helpful and there is enough space in the rooms to sleep 6 (one sofa bed and trundle bed). In addition, the location is great! Close to dolphin mall and a lot of restaurants nearby. Free parking and wifi provided as well!</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r621862520-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>621862520</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>Best Value for money.</t>
+  </si>
+  <si>
+    <t>This hotel is arguably one of the best I've stayed at in Florida. The rooms are very modern, clean and super comfortable. The cost was great and included breakfast. The check-in was easy and we were able to get our rooms early. The bathrooms are large and the rooms as well have decent space. I would stay here again!</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r621642235-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>621642235</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our family loved our one night stay at this hotel. Super clean hotel. Comfortable and spacious rooms. Staff was very pleasant and go out of their way with every request from check-in to housekeeping. The area where the hotel is located is very nice. Nice small shopping area/restaurants right next to the hotel. Close to everything (downtown Miami, airport, Miami medical center, Doral, etc). I recommend it! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r617812570-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>617812570</t>
+  </si>
+  <si>
+    <t>09/18/2018</t>
+  </si>
+  <si>
+    <t>Loved Our Stay!!!</t>
+  </si>
+  <si>
+    <t>This hotel is up to date on everything! Very new, clean, awesome staff! Has microwave and fridge. Located at Doral, so it is close to several shopping centers if shopping is your thing! Doral is a good area. Rooms are very spacious with modern bathrooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r617242173-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>617242173</t>
+  </si>
+  <si>
+    <t>09/17/2018</t>
+  </si>
+  <si>
+    <t>Disappointed Loyal Customer</t>
+  </si>
+  <si>
+    <t>This is the 3rd or 4th time we have stayed at this rather new hotel.  All previous visits were exemplary. This time, very disappointed.  We were given a room which had been, so we were told, appointed for us according to our preferences, specifically all feathers removed.  Sounded great, at the time.  Arriving in our room, it was clear the room cleanliness left a lot to be desired.  Turning down the pillows revealed several long hairs...had the sheets been changed???  Turning around showed a partially smoked and extinguished home-rolled cigarette (?) left in the windows sill.  The floor had not been vacuumed, crumbs and other trash all over, piece of macaroni stuck over by the clothes closet. At this point, we stopped looking around and called the front desk. To state the positive, the front desk and housekeeping showed up within 30 min to scrutinize and provide us with another room.  The rest of the stay was uneventful.  The breakfast was good, the staff is friendly.  Not sure we will stay there again, such a shame, it is convenient to our destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the 3rd or 4th time we have stayed at this rather new hotel.  All previous visits were exemplary. This time, very disappointed.  We were given a room which had been, so we were told, appointed for us according to our preferences, specifically all feathers removed.  Sounded great, at the time.  Arriving in our room, it was clear the room cleanliness left a lot to be desired.  Turning down the pillows revealed several long hairs...had the sheets been changed???  Turning around showed a partially smoked and extinguished home-rolled cigarette (?) left in the windows sill.  The floor had not been vacuumed, crumbs and other trash all over, piece of macaroni stuck over by the clothes closet. At this point, we stopped looking around and called the front desk. To state the positive, the front desk and housekeeping showed up within 30 min to scrutinize and provide us with another room.  The rest of the stay was uneventful.  The breakfast was good, the staff is friendly.  Not sure we will stay there again, such a shame, it is convenient to our destination.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r612928861-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>612928861</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Clean good staff well appointed room</t>
+  </si>
+  <si>
+    <t>This hotel is near a business I visit in Miami. This stay and review were my first use of the property and other than challenging ingress egress this is a fine example of SpringHill Suites. The front desk staff was accommodating and helpful as well as recognized my elite status with Marriott. The room was on the first floor and had a nice sleeping area separated from the bath and work area. Breakfast was well prepared and offered various healthy choices alongside usual fare. Parking is adequate and as the title says the only challenge is ingress egress in heavy traffic.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r603664698-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>603664698</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Stay before cruise</t>
+  </si>
+  <si>
+    <t>Very nice and modern hotel. A bit pricey but worth it. One elevator was down while we were there, so waiting to go up and down for breakfast took a little longer.. Nice pool. Hotel is near a lot of food venues.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded August 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2018</t>
+  </si>
+  <si>
+    <t>Very nice and modern hotel. A bit pricey but worth it. One elevator was down while we were there, so waiting to go up and down for breakfast took a little longer.. Nice pool. Hotel is near a lot of food venues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r593892375-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>593892375</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Everything was fantastic! They allowed us to check in a little early, which was so helpful. They have a pool, sell snacks and beverages at the front desk, and breakfast is great- eggs, toppings, fresh waffles, cereals, pastries, oatmeal, coffee, juice. Free lollipops at the front desk make kids feel welcomed. Gym downstairs is clean, beds are very comfy. Close to gas station and several restaurants. Would definitely stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Everything was fantastic! They allowed us to check in a little early, which was so helpful. They have a pool, sell snacks and beverages at the front desk, and breakfast is great- eggs, toppings, fresh waffles, cereals, pastries, oatmeal, coffee, juice. Free lollipops at the front desk make kids feel welcomed. Gym downstairs is clean, beds are very comfy. Close to gas station and several restaurants. Would definitely stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r592012548-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>592012548</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Does simple, better</t>
+  </si>
+  <si>
+    <t>Did an overnight here, after a long day’s flying from The UK. Easy to get to from the airport. Ample parking. Polite and efficient front desk staff. Room was clean and spacious, with enough room for 2 adults and 3 teens and all of our luggage. Table between the beds has a power socket AND a USB! Other similar points elsewhere in the room too. Beds were very comfortable. Breakfast was “continental”, but included sausages, sausage skillet and scrambled eggs(which, for a buffet, were amazingly light: congrats chef!). With that, a selection of cereals, fruit, juices, meats, cheeses and good quality breads and muffins. I’ve had many hotel continental breakfasts. Some have been close to useless (I’m looking at you, Bear Mountain Inn NY!). Springhill Suites Miami Doral do it right!2 small issues: the room (204) did seem a bit dark and it could do with a power socket close enough to the mirror in the room to allow people not in the bathroom to get ready at the same time as those in the bathroom. Otherwise, if you need an airport hotel in Miami, you could do a lot worse than stay here. Thanks to all. MoreShow less</t>
+  </si>
+  <si>
+    <t>Did an overnight here, after a long day’s flying from The UK. Easy to get to from the airport. Ample parking. Polite and efficient front desk staff. Room was clean and spacious, with enough room for 2 adults and 3 teens and all of our luggage. Table between the beds has a power socket AND a USB! Other similar points elsewhere in the room too. Beds were very comfortable. Breakfast was “continental”, but included sausages, sausage skillet and scrambled eggs(which, for a buffet, were amazingly light: congrats chef!). With that, a selection of cereals, fruit, juices, meats, cheeses and good quality breads and muffins. I’ve had many hotel continental breakfasts. Some have been close to useless (I’m looking at you, Bear Mountain Inn NY!). Springhill Suites Miami Doral do it right!2 small issues: the room (204) did seem a bit dark and it could do with a power socket close enough to the mirror in the room to allow people not in the bathroom to get ready at the same time as those in the bathroom. Otherwise, if you need an airport hotel in Miami, you could do a lot worse than stay here. Thanks to all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r586814858-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>586814858</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before our cruise. Excellent customer service, nice decor, comfortable beds, and nice beakfast. The check in and out were quick. The hotel is  close to the airport. We enjoyed our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before our cruise. Excellent customer service, nice decor, comfortable beds, and nice beakfast. The check in and out were quick. The hotel is  close to the airport. We enjoyed our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r586144078-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>586144078</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>Great Place!!</t>
+  </si>
+  <si>
+    <t>The staff here are very friendly and make you feel welcomed from the moment you walk into the door. They are accommodating and will do everything to make you comfortable and your stay pleasurable and memorable. The rooms are designed beautifully, spacious, and very clean. The breakfast was fabulous and they have an large variety of items; freshly scrambled eggs, bacon, sausage, waffles, hard boiled eggs, cheeses and cold cuts, variety of fresh fruit, cereal, granola, milk, juice, and fresh coffee. The coffee is available 24 hours a day and they had bananas out until early evening everyday. The meeting/breakfast area is large, clean, and offers a variety of seating and outlets to charge your devices. There are two large screen computers there as well. There is a mini store in the lobby that sells a variety of items like chips, soda, etc. for convenience as well. The parking-lot is large and I didn’t have to hunt for a parking spot by the door closest to my room. There are several key entry doors around the  hotel making it convenient to get to your room. If I ever come to Doral again, I would stay here. I highly recommend this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>The staff here are very friendly and make you feel welcomed from the moment you walk into the door. They are accommodating and will do everything to make you comfortable and your stay pleasurable and memorable. The rooms are designed beautifully, spacious, and very clean. The breakfast was fabulous and they have an large variety of items; freshly scrambled eggs, bacon, sausage, waffles, hard boiled eggs, cheeses and cold cuts, variety of fresh fruit, cereal, granola, milk, juice, and fresh coffee. The coffee is available 24 hours a day and they had bananas out until early evening everyday. The meeting/breakfast area is large, clean, and offers a variety of seating and outlets to charge your devices. There are two large screen computers there as well. There is a mini store in the lobby that sells a variety of items like chips, soda, etc. for convenience as well. The parking-lot is large and I didn’t have to hunt for a parking spot by the door closest to my room. There are several key entry doors around the  hotel making it convenient to get to your room. If I ever come to Doral again, I would stay here. I highly recommend this hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r585875630-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>585875630</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Comfy bed, nice decor, friendly staff, clean</t>
+  </si>
+  <si>
+    <t>I spent the week here for business. Major plus is there are several restaurants within walking distance if you don’t have a rental car and want something close by. The hotel is very nicely decorated and CLEAN! I found my room to be good sized and bed was very comfortable. The hot breakfast in the morning was pretty good, nothing special but good. All the staff members were very nice and helpful. My experience was very good. Hope to come back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent the week here for business. Major plus is there are several restaurants within walking distance if you don’t have a rental car and want something close by. The hotel is very nicely decorated and CLEAN! I found my room to be good sized and bed was very comfortable. The hot breakfast in the morning was pretty good, nothing special but good. All the staff members were very nice and helpful. My experience was very good. Hope to come back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r584414091-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>584414091</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>A last minute change of plans..</t>
+  </si>
+  <si>
+    <t>We were scheduled to stay at the Courtyard in Coral Gables, but were required a day early and the hotel was full. The facility is just a year old and the scent of new is still in the air...in the continuing tradition of Marriott, the entire staff was prompt and professional...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We were scheduled to stay at the Courtyard in Coral Gables, but were required a day early and the hotel was full. The facility is just a year old and the scent of new is still in the air...in the continuing tradition of Marriott, the entire staff was prompt and professional...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r583715878-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>583715878</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great place to visit the family living in the area.</t>
+  </si>
+  <si>
+    <t>This is what looks like a new hotel, the staff, almost all of them were excellent, with the exception of one of the front desk guys during the night shift. Other than that, the whole staff - one were giving us a great service, from front desk, to housekeeping to the breakfast squad. Breakfast was good, but the hotel was son busy, and the people do not realize the seats are needed for other people. The rooms are a little small and narrow, but hey, we had a heck of a time. I forgot this young lady at the front desk, dark hair and living around the hotel a few block away, she gave us all kind of info, always ready to help and very knowledgeable of the surroundings. She was there Saturday and Sunday morning. My hat goes off for her.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is what looks like a new hotel, the staff, almost all of them were excellent, with the exception of one of the front desk guys during the night shift. Other than that, the whole staff - one were giving us a great service, from front desk, to housekeeping to the breakfast squad. Breakfast was good, but the hotel was son busy, and the people do not realize the seats are needed for other people. The rooms are a little small and narrow, but hey, we had a heck of a time. I forgot this young lady at the front desk, dark hair and living around the hotel a few block away, she gave us all kind of info, always ready to help and very knowledgeable of the surroundings. She was there Saturday and Sunday morning. My hat goes off for her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r579328285-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>579328285</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable, well laid out and modern room.</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable room with a modern lay out. Staff very friendly and helpful. Hotel very easy to find near turnpike and only about 7 miles from MIA. Best eggs I have ever eaten in a breakfast buffet usually I never eat them as they look awful- these looked great and tasted better- kudos! Well suited to modern business traveler if you don’t want to spend a great deal. Lots of restaurants nearby and I imagine shopping not two far. Great sofa to relax after a long day and desk cleverly separates room for privacyMoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, comfortable room with a modern lay out. Staff very friendly and helpful. Hotel very easy to find near turnpike and only about 7 miles from MIA. Best eggs I have ever eaten in a breakfast buffet usually I never eat them as they look awful- these looked great and tasted better- kudos! Well suited to modern business traveler if you don’t want to spend a great deal. Lots of restaurants nearby and I imagine shopping not two far. Great sofa to relax after a long day and desk cleverly separates room for privacyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r578173511-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>578173511</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>With our family of 6 people, we stayed here overnight. Nice staff and a very good breakfast. Rooms were neat, not noisy. Just good new hotel. Bedding was missing but was brought. Sliding door to bathroom must be made. Good Quality and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>springhill s, s at SpringHill Suites Miami Doral, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>With our family of 6 people, we stayed here overnight. Nice staff and a very good breakfast. Rooms were neat, not noisy. Just good new hotel. Bedding was missing but was brought. Sliding door to bathroom must be made. Good Quality and price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r567762213-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>567762213</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>The hotel and staff were amazing!! EVERY staff person was friendly and courteous and always willing to help. The hotel was very clean and safe. I loved that all entrances required a key, except the front door. Breakfast was good and plentiful. We were there for 8 days, so maybe a little more variety from day to day would be good. Pool area was decent size, though not for swimming laps. Free headphones in fitness center were nice touch since I forgot mine. Not high quality but worked fine and greatly appreciated. Good.variety of restaurants nearby--walking distance. Two malls about 15 minutes away, which my teenagers appreciated. Only downside was distance from beach, but we worked it out by alternating beach and pool days.Teenagers (4), loved the hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>The hotel and staff were amazing!! EVERY staff person was friendly and courteous and always willing to help. The hotel was very clean and safe. I loved that all entrances required a key, except the front door. Breakfast was good and plentiful. We were there for 8 days, so maybe a little more variety from day to day would be good. Pool area was decent size, though not for swimming laps. Free headphones in fitness center were nice touch since I forgot mine. Not high quality but worked fine and greatly appreciated. Good.variety of restaurants nearby--walking distance. Two malls about 15 minutes away, which my teenagers appreciated. Only downside was distance from beach, but we worked it out by alternating beach and pool days.Teenagers (4), loved the hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r564767348-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>564767348</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>New hotel</t>
+  </si>
+  <si>
+    <t>This is a nice hotel close to MIA.  It's new with large rooms and comfortable beds.  It comes with daily free breakfast, but does not have the nightly social hours like other nearby hotels.  Overall, this is a nice hotel for a short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>This is a nice hotel close to MIA.  It's new with large rooms and comfortable beds.  It comes with daily free breakfast, but does not have the nightly social hours like other nearby hotels.  Overall, this is a nice hotel for a short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r564130776-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>564130776</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Updated clean Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at the Springhill Suites in Doral Feb 28th - Mar 2nd. The hotel appears to be almost new, has a super friendly staff and is very clean. Nice workout room with new equipment and I was able to map out a nice 5 mile running route to a local park. Park your car for the evening as their are several nice restaurants within easy walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Springhill Suites in Doral Feb 28th - Mar 2nd. The hotel appears to be almost new, has a super friendly staff and is very clean. Nice workout room with new equipment and I was able to map out a nice 5 mile running route to a local park. Park your car for the evening as their are several nice restaurants within easy walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r559221261-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>559221261</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nice and new</t>
+  </si>
+  <si>
+    <t>The staff are very nice.  The rooms are fairly clean, except my couch was pretty dirt and floors needed a vacuum.  Otherwise it is a nice and new property, near the Miami airport.  It is truly a new build and not a refurb.  Typical modern deco for Springhill.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>The staff are very nice.  The rooms are fairly clean, except my couch was pretty dirt and floors needed a vacuum.  Otherwise it is a nice and new property, near the Miami airport.  It is truly a new build and not a refurb.  Typical modern deco for Springhill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r553538135-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>553538135</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Miami business trip</t>
+  </si>
+  <si>
+    <t>Convenient location although some Uber drivers take a few attempts to find it from the address alone. Pleasant rooms and great service. I will never understand why the breakfast has to be on disposable plates though. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Convenient location although some Uber drivers take a few attempts to find it from the address alone. Pleasant rooms and great service. I will never understand why the breakfast has to be on disposable plates though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r548939722-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>548939722</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>New and modern hotel</t>
+  </si>
+  <si>
+    <t>This hotel is a new built. We stayed here for one night. It's about 15 minutes from MIA airport, not too bad a drive. The hotel has very modern decor. The only complain is that AC is not working well. It's super cold. Somehow even if we set it to 72 degrees, on the next morning it's showing 65.MoreShow less</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is a new built. We stayed here for one night. It's about 15 minutes from MIA airport, not too bad a drive. The hotel has very modern decor. The only complain is that AC is not working well. It's super cold. Somehow even if we set it to 72 degrees, on the next morning it's showing 65.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r539566112-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>539566112</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Good business hotel</t>
+  </si>
+  <si>
+    <t>This is a new springhill hotel that is located in a nice area within walking distance of restaurants, banks and grocery stores.Everything has a neat modern look. The rooms are nicely appointed, with a great bed and nice bathroom. It got my attention that the bathroom was rather large but the shower/tub was very small for some reason.Internet was decently fast and complimentary as was parking and breakfast (although typically limited at this class of hotel). There was hot coffeee available at all times in the lobby.The tv was nice with a wide selection of hd channels and also access to youtube, netflix, hulu and pandora.The only things I did not like (nothing major here) were that ice machines are not on every floor, that the room did not have a security box and that the computers in the lobby run outdated software ( the same in every marriott) that does not support several web based applications.Overall I think this is a nice place to stay and work, I received a good return for the money paid. I would return to this place in the future for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Veronica C, Manager at SpringHill Suites Miami Doral, responded to this reviewResponded December 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2017</t>
+  </si>
+  <si>
+    <t>This is a new springhill hotel that is located in a nice area within walking distance of restaurants, banks and grocery stores.Everything has a neat modern look. The rooms are nicely appointed, with a great bed and nice bathroom. It got my attention that the bathroom was rather large but the shower/tub was very small for some reason.Internet was decently fast and complimentary as was parking and breakfast (although typically limited at this class of hotel). There was hot coffeee available at all times in the lobby.The tv was nice with a wide selection of hd channels and also access to youtube, netflix, hulu and pandora.The only things I did not like (nothing major here) were that ice machines are not on every floor, that the room did not have a security box and that the computers in the lobby run outdated software ( the same in every marriott) that does not support several web based applications.Overall I think this is a nice place to stay and work, I received a good return for the money paid. I would return to this place in the future for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r538682379-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>538682379</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Crisp Modern Design. A very good property</t>
+  </si>
+  <si>
+    <t>I'll be perfectly honest. I'd hoped to stay at a nearby property - a Residence Inn - because I like the fully kitchen feature for longer stays.  But, it was full. I'd never stayed in a SpringHill Suites property before so I figured I'd five it a try. When I first arrived, I was a bit torn because while the lobby and rooms are very modern and chic - but at least the room I stayed in was not a suite. It was a normal room with a very interesting desk-divider with sliding glass. So, at first, I was a bit disappointed. But, once I settled in, I was very happy. The bed was comfortable though the pillows were a bit soft for my taste. I really liked the bathroom set up. It made for a great use of space. The refrigerator and microwave came in handy too. 
+Two recommendations about the room itself:
+1) The room was short on drawer/storage space for people who are staying for more than a few days. I personally don't like my clothes to be out on open shelves.
+2) The TV functionality was very awkward. The TV is mounted on the wall so that it can be angled toward the bed or toward the sitting area. Unfortunately, that feature makes it awkward to watch from either location. And, the Netflix, though a neat perk, logs you out of your account every time you...I'll be perfectly honest. I'd hoped to stay at a nearby property - a Residence Inn - because I like the fully kitchen feature for longer stays.  But, it was full. I'd never stayed in a SpringHill Suites property before so I figured I'd five it a try. When I first arrived, I was a bit torn because while the lobby and rooms are very modern and chic - but at least the room I stayed in was not a suite. It was a normal room with a very interesting desk-divider with sliding glass. So, at first, I was a bit disappointed. But, once I settled in, I was very happy. The bed was comfortable though the pillows were a bit soft for my taste. I really liked the bathroom set up. It made for a great use of space. The refrigerator and microwave came in handy too. Two recommendations about the room itself:1) The room was short on drawer/storage space for people who are staying for more than a few days. I personally don't like my clothes to be out on open shelves.2) The TV functionality was very awkward. The TV is mounted on the wall so that it can be angled toward the bed or toward the sitting area. Unfortunately, that feature makes it awkward to watch from either location. And, the Netflix, though a neat perk, logs you out of your account every time you shut off the TV. At the Residence Inn, it remained logged in until you checked out. But, those are not major issues and I'd stay there again.The gym is functional but could use some more equipment. It has the cardio down but beyond cardio, the options are limited to minimal free weights. The breakfast was good and varied though I would have liked it to have been refreshed more often. The staff was always busy but the buffet always seemed to be out of key items. Not all guests are on a  chill vacation. I often needed to get to work and found myself waiting on eggs or something. So, there are still a few kinks. But, overall, the location is good if that's the general area you want to stay. There are great options to walk to for food (both restaurants and a grocery store).MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll be perfectly honest. I'd hoped to stay at a nearby property - a Residence Inn - because I like the fully kitchen feature for longer stays.  But, it was full. I'd never stayed in a SpringHill Suites property before so I figured I'd five it a try. When I first arrived, I was a bit torn because while the lobby and rooms are very modern and chic - but at least the room I stayed in was not a suite. It was a normal room with a very interesting desk-divider with sliding glass. So, at first, I was a bit disappointed. But, once I settled in, I was very happy. The bed was comfortable though the pillows were a bit soft for my taste. I really liked the bathroom set up. It made for a great use of space. The refrigerator and microwave came in handy too. 
+Two recommendations about the room itself:
+1) The room was short on drawer/storage space for people who are staying for more than a few days. I personally don't like my clothes to be out on open shelves.
+2) The TV functionality was very awkward. The TV is mounted on the wall so that it can be angled toward the bed or toward the sitting area. Unfortunately, that feature makes it awkward to watch from either location. And, the Netflix, though a neat perk, logs you out of your account every time you...I'll be perfectly honest. I'd hoped to stay at a nearby property - a Residence Inn - because I like the fully kitchen feature for longer stays.  But, it was full. I'd never stayed in a SpringHill Suites property before so I figured I'd five it a try. When I first arrived, I was a bit torn because while the lobby and rooms are very modern and chic - but at least the room I stayed in was not a suite. It was a normal room with a very interesting desk-divider with sliding glass. So, at first, I was a bit disappointed. But, once I settled in, I was very happy. The bed was comfortable though the pillows were a bit soft for my taste. I really liked the bathroom set up. It made for a great use of space. The refrigerator and microwave came in handy too. Two recommendations about the room itself:1) The room was short on drawer/storage space for people who are staying for more than a few days. I personally don't like my clothes to be out on open shelves.2) The TV functionality was very awkward. The TV is mounted on the wall so that it can be angled toward the bed or toward the sitting area. Unfortunately, that feature makes it awkward to watch from either location. And, the Netflix, though a neat perk, logs you out of your account every time you shut off the TV. At the Residence Inn, it remained logged in until you checked out. But, those are not major issues and I'd stay there again.The gym is functional but could use some more equipment. It has the cardio down but beyond cardio, the options are limited to minimal free weights. The breakfast was good and varied though I would have liked it to have been refreshed more often. The staff was always busy but the buffet always seemed to be out of key items. Not all guests are on a  chill vacation. I often needed to get to work and found myself waiting on eggs or something. So, there are still a few kinks. But, overall, the location is good if that's the general area you want to stay. There are great options to walk to for food (both restaurants and a grocery store).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r530892203-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>530892203</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent Property</t>
+  </si>
+  <si>
+    <t>A very clean and professional run property. The rooms are spacious and very nicely appointed. The front desk staff was very friendly and professional. The breakfast was plentiful and fresh.  Plenty of parking and local food options within walking distance.  I will stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>A very clean and professional run property. The rooms are spacious and very nicely appointed. The front desk staff was very friendly and professional. The breakfast was plentiful and fresh.  Plenty of parking and local food options within walking distance.  I will stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r524691860-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>524691860</t>
+  </si>
+  <si>
+    <t>09/15/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>This is a new hotel. Lovely and clean. I loved the suite. Very good breakfast. Plenty of parking. Very quiet. Close to both Dolphin and International Malls. Close to many restaurants. I am not sure how difficult it is to get around the area without a car. Very helpful and hospitable staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel. Lovely and clean. I loved the suite. Very good breakfast. Plenty of parking. Very quiet. Close to both Dolphin and International Malls. Close to many restaurants. I am not sure how difficult it is to get around the area without a car. Very helpful and hospitable staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r522411859-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>522411859</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay waiting to leave for Irma</t>
+  </si>
+  <si>
+    <t>Great hotel, the rooms are immaculate and very comfortable. The staff was helpful and attentive. The breakfast was nice with fresh food and pastry. This is my first stay at a Springhill and will definitely be staying at them again. Thank you for taking care of us if only for a short time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel, the rooms are immaculate and very comfortable. The staff was helpful and attentive. The breakfast was nice with fresh food and pastry. This is my first stay at a Springhill and will definitely be staying at them again. Thank you for taking care of us if only for a short time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r516481252-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>516481252</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Overall - Would Recommend </t>
+  </si>
+  <si>
+    <t>Overall:
+We had a great stay. The staff was always friendly and inviting. The common areas of the hotel were very clean and our room was nicely laid out with nice appointments. The bathroom though a different layout was very functional. Beds were nice with comfortable linens and pillows. The office area would be great for those traveling on business and the fridge and microwave were a great bonus. Someone was thinking when they designed these rooms as there were USB and wall outlets everywhere you would need them. I have never seen so many outlets in a hotel room it was AMAZING!!
+There are a number of restaurants within walking distance with reasonably priced menus. The hotel grounds were nicley maintained and very clean and well lit. The parking lot felt safe and inviting even after dark. We did not try the pool, but it looked a tad small, but well maintained. Signage to the hotel was a bit poor which made locating it from the street a bit difficult. 
+I offer a few suggestions that would have made this a 5/5 stay. 
+1) Where were the waffles on Friday morning. We were disappointed they were only a Saturday thing. That is a staple of hotel breakfast compound that with no bacon and bland gravy and biscuits and it equates to a disappointment. 
+2) There was a visible gap in the doorway that allowed a significant amount of light...Overall:We had a great stay. The staff was always friendly and inviting. The common areas of the hotel were very clean and our room was nicely laid out with nice appointments. The bathroom though a different layout was very functional. Beds were nice with comfortable linens and pillows. The office area would be great for those traveling on business and the fridge and microwave were a great bonus. Someone was thinking when they designed these rooms as there were USB and wall outlets everywhere you would need them. I have never seen so many outlets in a hotel room it was AMAZING!!There are a number of restaurants within walking distance with reasonably priced menus. The hotel grounds were nicley maintained and very clean and well lit. The parking lot felt safe and inviting even after dark. We did not try the pool, but it looked a tad small, but well maintained. Signage to the hotel was a bit poor which made locating it from the street a bit difficult. I offer a few suggestions that would have made this a 5/5 stay. 1) Where were the waffles on Friday morning. We were disappointed they were only a Saturday thing. That is a staple of hotel breakfast compound that with no bacon and bland gravy and biscuits and it equates to a disappointment. 2) There was a visible gap in the doorway that allowed a significant amount of light into the room. The light was not a big deal, but the sound from the hallway that followed the light was a bit annoying. A bit of weather stripping could act as a great buffer for the hallway noise. 3) There was a loud dripping type noise coming from in the wall in the bathroom. Specifically the small bump out wall next to the sink. Strangely it was only heard at night and was not consistent. 4) The shower door leaked terribley, it needs a better gasket. This led to giant puddles on the bathroom floor and wet socks. I would stay here again and with a few inexpensive fixes this hotel would have been a 5/5MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Overall:
+We had a great stay. The staff was always friendly and inviting. The common areas of the hotel were very clean and our room was nicely laid out with nice appointments. The bathroom though a different layout was very functional. Beds were nice with comfortable linens and pillows. The office area would be great for those traveling on business and the fridge and microwave were a great bonus. Someone was thinking when they designed these rooms as there were USB and wall outlets everywhere you would need them. I have never seen so many outlets in a hotel room it was AMAZING!!
+There are a number of restaurants within walking distance with reasonably priced menus. The hotel grounds were nicley maintained and very clean and well lit. The parking lot felt safe and inviting even after dark. We did not try the pool, but it looked a tad small, but well maintained. Signage to the hotel was a bit poor which made locating it from the street a bit difficult. 
+I offer a few suggestions that would have made this a 5/5 stay. 
+1) Where were the waffles on Friday morning. We were disappointed they were only a Saturday thing. That is a staple of hotel breakfast compound that with no bacon and bland gravy and biscuits and it equates to a disappointment. 
+2) There was a visible gap in the doorway that allowed a significant amount of light...Overall:We had a great stay. The staff was always friendly and inviting. The common areas of the hotel were very clean and our room was nicely laid out with nice appointments. The bathroom though a different layout was very functional. Beds were nice with comfortable linens and pillows. The office area would be great for those traveling on business and the fridge and microwave were a great bonus. Someone was thinking when they designed these rooms as there were USB and wall outlets everywhere you would need them. I have never seen so many outlets in a hotel room it was AMAZING!!There are a number of restaurants within walking distance with reasonably priced menus. The hotel grounds were nicley maintained and very clean and well lit. The parking lot felt safe and inviting even after dark. We did not try the pool, but it looked a tad small, but well maintained. Signage to the hotel was a bit poor which made locating it from the street a bit difficult. I offer a few suggestions that would have made this a 5/5 stay. 1) Where were the waffles on Friday morning. We were disappointed they were only a Saturday thing. That is a staple of hotel breakfast compound that with no bacon and bland gravy and biscuits and it equates to a disappointment. 2) There was a visible gap in the doorway that allowed a significant amount of light into the room. The light was not a big deal, but the sound from the hallway that followed the light was a bit annoying. A bit of weather stripping could act as a great buffer for the hallway noise. 3) There was a loud dripping type noise coming from in the wall in the bathroom. Specifically the small bump out wall next to the sink. Strangely it was only heard at night and was not consistent. 4) The shower door leaked terribley, it needs a better gasket. This led to giant puddles on the bathroom floor and wet socks. I would stay here again and with a few inexpensive fixes this hotel would have been a 5/5More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r509133233-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>509133233</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Newer property - ultra modern furnishings, great location</t>
+  </si>
+  <si>
+    <t>Very modern, minimalist decor/furnishings for this new property close to a lot of shopping and restaurants in Doral, FL. Rates are pretty good for a Miami property.  This property is about 30 minutes from Miami Beach, VERY close to the airport, VERY close to SOCOM, very close to several golf courses.  Rooms are attractive, bed was comfortable, bathrooms are a very good size.  Usual Paul Mitchell toiletries. ONLY problem we had was there was an unusually LONG wait for hot water in the bathroom/shower.  Seriously, wait for hot water in the shower up to 5 min. Real waste of water running extremely cold waiting for hot water to arrive.  Even had time on one occasion to call the front desk to ask where was the hot water. Breakfast was more than ample.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Very modern, minimalist decor/furnishings for this new property close to a lot of shopping and restaurants in Doral, FL. Rates are pretty good for a Miami property.  This property is about 30 minutes from Miami Beach, VERY close to the airport, VERY close to SOCOM, very close to several golf courses.  Rooms are attractive, bed was comfortable, bathrooms are a very good size.  Usual Paul Mitchell toiletries. ONLY problem we had was there was an unusually LONG wait for hot water in the bathroom/shower.  Seriously, wait for hot water in the shower up to 5 min. Real waste of water running extremely cold waiting for hot water to arrive.  Even had time on one occasion to call the front desk to ask where was the hot water. Breakfast was more than ample.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r508984186-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>508984186</t>
+  </si>
+  <si>
+    <t>Melina ws great!</t>
+  </si>
+  <si>
+    <t>I never stayed in this hotel.I booked but then some troubles occurred. Flight from Italy was cancelled and I what I have obtained was just a re-routing the day after. I immediately informed booking.com about checking in the day after the one scheduled. When arrived at the hotel with my colleague we discovered the rooms were given to other people due to our "no show" on previous day. I was really disappointed. Melina (the supervisor on that day) helped us in getting in touch with Booking.com and clear the matter (...we got a new booking into a different hotel as well as everything was sold out there...) and kindly credited the two nights (...previously charged...). Very happy in having found a smart person willing to help people.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I never stayed in this hotel.I booked but then some troubles occurred. Flight from Italy was cancelled and I what I have obtained was just a re-routing the day after. I immediately informed booking.com about checking in the day after the one scheduled. When arrived at the hotel with my colleague we discovered the rooms were given to other people due to our "no show" on previous day. I was really disappointed. Melina (the supervisor on that day) helped us in getting in touch with Booking.com and clear the matter (...we got a new booking into a different hotel as well as everything was sold out there...) and kindly credited the two nights (...previously charged...). Very happy in having found a smart person willing to help people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34438-d12285436-r496700341-SpringHill_Suites_Miami_Doral-Miami_Florida.html</t>
+  </si>
+  <si>
+    <t>496700341</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>New &amp; near airport</t>
+  </si>
+  <si>
+    <t>This new hotel had everything I needed for an amazing rate. Spacious room size, great variety for breakfast and very friendly staff. I did use the fitness room as well as the laundry.  Although the bed was comfortable, the pillows were a little too thick for me as a back sleeper. The only drawback was that they were down to only one elevator when we were there, and they could use two inexpensive laundry baskets in the laundry room. Overall, a fine option for an overnight near Miami airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>This new hotel had everything I needed for an amazing rate. Spacious room size, great variety for breakfast and very friendly staff. I did use the fitness room as well as the laundry.  Although the bed was comfortable, the pillows were a little too thick for me as a back sleeper. The only drawback was that they were down to only one elevator when we were there, and they could use two inexpensive laundry baskets in the laundry room. Overall, a fine option for an overnight near Miami airport.More</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +848,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Miami-Hotels-SpringHill-Suites-By-Marriott-Miami-Doral.h16700690.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +1221,1973 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>63779</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>93</v>
+      </c>
+      <c r="X11" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>93</v>
+      </c>
+      <c r="X13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>93</v>
+      </c>
+      <c r="X14" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>93</v>
+      </c>
+      <c r="X15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>134</v>
+      </c>
+      <c r="X17" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>143</v>
+      </c>
+      <c r="X18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>142</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>143</v>
+      </c>
+      <c r="X20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>174</v>
+      </c>
+      <c r="X22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>151</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>191</v>
+      </c>
+      <c r="X24" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>191</v>
+      </c>
+      <c r="X25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>206</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>191</v>
+      </c>
+      <c r="X26" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>214</v>
+      </c>
+      <c r="X28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>214</v>
+      </c>
+      <c r="X29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>234</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>235</v>
+      </c>
+      <c r="X31" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>245</v>
+      </c>
+      <c r="J32" t="s">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +3209,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
